--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2858369.006274445</v>
+        <v>2855871.270923995</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.97587270101049</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.93856390941626</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>104.9081977624113</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916328</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459283</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5644081416966</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0785727665282</v>
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370732</v>
+        <v>44.34001494201961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353343</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.9111368587535</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.2880835848259</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>166.3077209145418</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.72558393735907</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>79.286047385091</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.7588163125936</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>314.4090750323805</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.920914767246836</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.63890193362677</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337049</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S16" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141443</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>564.4718058889066</v>
+        <v>937.9375641499864</v>
       </c>
       <c r="C2" t="n">
-        <v>564.4718058889066</v>
+        <v>937.9375641499864</v>
       </c>
       <c r="D2" t="n">
-        <v>564.4718058889066</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6835532906624</v>
+        <v>915.7397129368445</v>
       </c>
       <c r="F2" t="n">
-        <v>171.7380525414589</v>
+        <v>908.7942121876411</v>
       </c>
       <c r="G2" t="n">
-        <v>158.6687960673011</v>
+        <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088538</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118224</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181053</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639728</v>
+        <v>1650.23650608518</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680363</v>
+        <v>2273.717981125814</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291968</v>
+        <v>2440.274040872791</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4370,10 +4370,10 @@
         <v>1324.537404214108</v>
       </c>
       <c r="X2" t="n">
-        <v>951.0716459530283</v>
+        <v>1324.537404214108</v>
       </c>
       <c r="Y2" t="n">
-        <v>951.0716459530283</v>
+        <v>1324.537404214108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988719</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177449</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564937</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>482.5055099510382</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679828</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150748</v>
+        <v>97.48881342044075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.2762045496335</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524144</v>
+        <v>497.8519368624348</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900087</v>
+        <v>632.5903887496042</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133885</v>
+        <v>1270.228688184493</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1922.402567487202</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751182</v>
+        <v>2079.185111364243</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115996</v>
+        <v>2500.961999729057</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4434,22 +4434,22 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375422</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
         <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.347004849371</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
         <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889427</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683894</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
         <v>1133.34574091894</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="C4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="D4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="E4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="F4" t="n">
-        <v>207.0428185061398</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="G4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4489,49 +4489,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131526</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039136</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856121</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066377</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249435</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.16708335132</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634885</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>687.1895968975741</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221469</v>
+        <v>687.1895968975741</v>
       </c>
       <c r="V4" t="n">
-        <v>789.0954750155823</v>
+        <v>687.1895968975741</v>
       </c>
       <c r="W4" t="n">
-        <v>499.6783049786217</v>
+        <v>397.7724268606135</v>
       </c>
       <c r="X4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
       <c r="Y4" t="n">
-        <v>353.9327660040501</v>
+        <v>169.7828759625962</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1877.43123768106</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="C5" t="n">
-        <v>1508.468720740648</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.203022133898</v>
+        <v>1180.745569878124</v>
       </c>
       <c r="E5" t="n">
-        <v>764.4147695356537</v>
+        <v>794.9573172798794</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4288647460461</v>
+        <v>383.9714124902719</v>
       </c>
       <c r="G5" t="n">
-        <v>340.3814870228776</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4568,22 +4568,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>256.7652667212221</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M5" t="n">
-        <v>1163.078276489641</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4598,19 +4598,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2251.17695255593</v>
       </c>
       <c r="V5" t="n">
-        <v>2264.031077745182</v>
+        <v>1920.114065212359</v>
       </c>
       <c r="W5" t="n">
-        <v>2264.031077745182</v>
+        <v>1567.345409942245</v>
       </c>
       <c r="X5" t="n">
-        <v>2264.031077745182</v>
+        <v>1567.345409942245</v>
       </c>
       <c r="Y5" t="n">
-        <v>2264.031077745182</v>
+        <v>1567.345409942245</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>302.8725030216735</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>807.234042887792</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N6" t="n">
-        <v>1820.852439770578</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.7878360902098</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C7" t="n">
-        <v>132.7878360902098</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D7" t="n">
-        <v>132.7878360902098</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E7" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V7" t="n">
-        <v>1052.635600998958</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="W7" t="n">
-        <v>763.218430961997</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2288800639797</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="Y7" t="n">
-        <v>314.4363009204495</v>
+        <v>221.3077645442295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1323.65538819944</v>
+        <v>1053.720158398189</v>
       </c>
       <c r="C8" t="n">
-        <v>954.6928712590286</v>
+        <v>1053.720158398189</v>
       </c>
       <c r="D8" t="n">
-        <v>596.4271726522782</v>
+        <v>695.4544597914387</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4271726522782</v>
+        <v>695.4544597914387</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4412678626705</v>
+        <v>688.5089590422352</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4808,16 +4808,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>905.9224623138435</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1537.640273297155</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2473.860318500454</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2473.860318500454</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>2473.860318500454</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W8" t="n">
-        <v>2473.860318500454</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.394560239374</v>
+        <v>1440.319998462311</v>
       </c>
       <c r="Y8" t="n">
-        <v>1710.255228263562</v>
+        <v>1440.319998462311</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5567829601589</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C10" t="n">
-        <v>497.620600032252</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>476.3215906734066</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.635600998958</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.635600998958</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.2052477903986</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.17510664033</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5267,43 +5267,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.47159895366</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,46 +7099,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,10 +7991,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.148155418816</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>55.00274284765385</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888727</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>394.8286567893816</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>113.9510923100396</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>101.2797400137713</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>269.7649306166119</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>64.55001208263428</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>441.9679254493649</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,10 +8456,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>123.0160352517128</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311155</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>378.0407240669647</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112518947</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S16" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667979</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752710.0443633791</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.0443633791</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>752710.044363379</v>
+        <v>752710.0443633789</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>752710.0443633789</v>
+        <v>752710.044363379</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918881</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849942</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765842</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909051</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26427,37 +26427,37 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707356</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707399</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707366</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707386</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.42449670739</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707354</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707362</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707368</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707425</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051737</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26522,46 +26522,46 @@
         <v>-387488.6891152769</v>
       </c>
       <c r="C6" t="n">
-        <v>395943.32287044</v>
+        <v>395943.3228704395</v>
       </c>
       <c r="D6" t="n">
         <v>400849.5698789397</v>
       </c>
       <c r="E6" t="n">
-        <v>-217812.3568529438</v>
+        <v>-217847.0947783794</v>
       </c>
       <c r="F6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="G6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="H6" t="n">
-        <v>557875.9904236402</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="I6" t="n">
-        <v>557875.9904236405</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="J6" t="n">
-        <v>385514.9980233596</v>
+        <v>385480.2600979239</v>
       </c>
       <c r="K6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="L6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982051</v>
       </c>
       <c r="M6" t="n">
-        <v>429798.3936079268</v>
+        <v>429763.6556824913</v>
       </c>
       <c r="N6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982049</v>
       </c>
       <c r="O6" t="n">
-        <v>557875.9904236406</v>
+        <v>557841.2524982048</v>
       </c>
       <c r="P6" t="n">
-        <v>557875.9904236404</v>
+        <v>557841.2524982049</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915514594</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>332.7071689196725</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>210.3545114137883</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.331086635932</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.504804251687318</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>51.019355609763</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097206</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775188</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>81.42157180421125</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>148.7331631606737</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>238.4292022849416</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>67.14791526147818</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>7.378827011234364</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>98.50782891355624</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>207.7309483477192</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>273.6217527244702</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562134</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718794</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956761</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.1448029344739</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683757</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984523</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844689</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451705</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024191</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105528</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.97111971937</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645656</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602334</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031708</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903403</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575035</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682467</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111751</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770775</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.509505477794</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555193</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305506</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.50806051029</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704984</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.96245038085</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489529</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.469042636169</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.5375126291097</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820283</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908714</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753076</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942304</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577948</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753766</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892089</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314786</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646949</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934104</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308983</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983905</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435674</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780513</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877694</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472178</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026207</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139847</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>490.5075832355687</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200311</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,28 +34448,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168942</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347177</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649321</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107303</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178123</v>
+        <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076821</v>
+        <v>168.2384441888658</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641005</v>
+        <v>163.7408668117541</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011613</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.762914151536</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937389</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541356</v>
+        <v>136.0994463506763</v>
       </c>
       <c r="M3" t="n">
-        <v>573.2026833776532</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>197.649243087165</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131351</v>
+        <v>158.3662059364053</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745598</v>
+        <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014746</v>
+        <v>135.438360860187</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055957</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250111</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.820017355251</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101269</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124301</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084608</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110743</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>184.6768658466929</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>458.3501960968216</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>132.8407390153181</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35024,16 +35024,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>642.6313008560969</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,10 +35176,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>263.7520512529787</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35188,7 +35188,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933425</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>578.7040994736967</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556946</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366978</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,13 +36604,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
